--- a/KOL_consolidated_251208(V).xlsx
+++ b/KOL_consolidated_251208(V).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ceo\Desktop\kol_dashboard_0.96\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781B5987-8732-4DEC-A2B6-A811907FFB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA69093-D0D1-4DE0-88BB-883106EF1DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="15696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kol_master" sheetId="1" r:id="rId1"/>
@@ -770,10 +770,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Anton Sadovnychyi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MEA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1015,6 +1011,10 @@
   </si>
   <si>
     <t>Ahmad Al-Hassiny</t>
+  </si>
+  <si>
+    <t>Anton Sadovnyshyi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1539,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1579,10 +1579,10 @@
         <v>71</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -1599,10 +1599,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="G2" s="7">
         <v>55.378050999999999</v>
@@ -1627,10 +1627,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="G3" s="7">
         <v>55.604806600000003</v>
@@ -1655,10 +1655,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="G4" s="7">
         <v>48.857547500000003</v>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7">
         <v>48.8572992</v>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G6" s="7">
         <v>43.403448500000003</v>
@@ -1735,10 +1735,10 @@
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7" s="7">
         <v>50.623741099999997</v>
@@ -1763,10 +1763,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G8" s="7">
         <v>49.517972999999998</v>
@@ -1791,10 +1791,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="G9" s="7">
         <v>48.509596999999999</v>
@@ -1819,10 +1819,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7">
         <v>49.8560157</v>
@@ -1847,10 +1847,10 @@
         <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7">
         <v>55.169438</v>
@@ -1875,10 +1875,10 @@
         <v>12</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G12" s="7">
         <v>44.426767400000003</v>
@@ -1903,7 +1903,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="7">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -1931,7 +1931,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="7">
@@ -1957,10 +1957,10 @@
         <v>14</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G15" s="7">
         <v>52.346916999999998</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="B16" s="7">
         <v>109001</v>
@@ -1985,10 +1985,10 @@
         <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G16" s="7">
         <v>50.455707099999998</v>
@@ -2013,10 +2013,10 @@
         <v>15</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G17" s="7">
         <v>50.430371200000003</v>
@@ -2041,10 +2041,10 @@
         <v>16</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7">
         <v>58.372636399999998</v>
@@ -2069,10 +2069,10 @@
         <v>17</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7">
         <v>41.858696100000003</v>
@@ -2097,10 +2097,10 @@
         <v>17</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7">
         <v>38.130287899999999</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="21" spans="1:10" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" s="7">
         <v>111003</v>
@@ -2126,20 +2126,20 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B22" s="7">
         <v>111004</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23" s="7">
         <v>111005</v>
@@ -2172,18 +2172,18 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="9"/>
       <c r="J23" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="7">
         <v>112001</v>
@@ -2192,7 +2192,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="20"/>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G25" s="7">
         <v>37.370175400000001</v>
@@ -2241,10 +2241,10 @@
         <v>19</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G26" s="7">
         <v>47.922050900000002</v>
@@ -2269,7 +2269,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="7">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2297,10 +2297,10 @@
         <v>20</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G28" s="7">
         <v>28.7040592</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="29" spans="1:10" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B29" s="7">
         <v>204001</v>
@@ -2325,10 +2325,10 @@
         <v>21</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G29" s="7">
         <v>-41.292381399999996</v>
@@ -2353,10 +2353,10 @@
         <v>22</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30" s="7">
         <v>13.668794200000001</v>
@@ -2381,10 +2381,10 @@
         <v>24</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G31" s="7">
         <v>41.332147399999997</v>
@@ -2409,10 +2409,10 @@
         <v>23</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G32" s="7">
         <v>30.044419600000001</v>
@@ -2437,10 +2437,10 @@
         <v>23</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="G33" s="7">
         <v>30.0362899</v>
@@ -2465,10 +2465,10 @@
         <v>23</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G34" s="7">
         <v>31.200092399999999</v>
@@ -2487,14 +2487,14 @@
         <v>302001</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G35" s="7">
         <v>35.557110199999997</v>
@@ -2513,14 +2513,14 @@
         <v>302002</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G36" s="7">
         <v>36.242489300000003</v>
@@ -2533,22 +2533,22 @@
     </row>
     <row r="37" spans="1:10" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B37" s="7">
         <v>401001</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="E37" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G37" s="7">
         <v>-33.920067899999999</v>
@@ -2567,16 +2567,16 @@
         <v>401002</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="E38" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G38" s="7">
         <v>-33.827468500000002</v>
@@ -3243,7 +3243,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3440,7 +3442,7 @@
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" s="7">
         <v>102001</v>
@@ -3463,7 +3465,7 @@
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="7">
         <v>102001</v>
@@ -3486,7 +3488,7 @@
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" s="7">
         <v>102001</v>
@@ -3509,7 +3511,7 @@
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="7">
         <v>102001</v>
@@ -3532,7 +3534,7 @@
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="7">
         <v>102001</v>
@@ -3555,7 +3557,7 @@
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" s="7">
         <v>102001</v>
@@ -3578,7 +3580,7 @@
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="7">
         <v>102001</v>
@@ -3601,7 +3603,7 @@
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" s="7">
         <v>103001</v>
@@ -3624,7 +3626,7 @@
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="7">
         <v>103001</v>
@@ -3647,7 +3649,7 @@
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" s="7">
         <v>103001</v>
@@ -3670,7 +3672,7 @@
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" s="7">
         <v>103001</v>
@@ -3693,7 +3695,7 @@
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="7">
         <v>103001</v>
@@ -3716,7 +3718,7 @@
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" s="7">
         <v>103001</v>
@@ -3739,7 +3741,7 @@
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" s="7">
         <v>103001</v>
@@ -4686,7 +4688,7 @@
     </row>
     <row r="65" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B65" s="7">
         <v>108003</v>
@@ -4709,7 +4711,7 @@
     </row>
     <row r="66" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B66" s="7">
         <v>108003</v>
@@ -4732,7 +4734,7 @@
     </row>
     <row r="67" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B67" s="7">
         <v>108003</v>
@@ -4755,7 +4757,7 @@
     </row>
     <row r="68" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B68" s="7">
         <v>108003</v>
@@ -4778,7 +4780,7 @@
     </row>
     <row r="69" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B69" s="7">
         <v>108003</v>
@@ -4801,7 +4803,7 @@
     </row>
     <row r="70" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B70" s="7">
         <v>108003</v>
@@ -4824,7 +4826,7 @@
     </row>
     <row r="71" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B71" s="7">
         <v>108003</v>
@@ -4847,7 +4849,7 @@
     </row>
     <row r="72" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B72" s="7">
         <v>109001</v>
@@ -4870,7 +4872,7 @@
     </row>
     <row r="73" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B73" s="7">
         <v>109001</v>
@@ -4893,7 +4895,7 @@
     </row>
     <row r="74" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B74" s="7">
         <v>109001</v>
@@ -4916,7 +4918,7 @@
     </row>
     <row r="75" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B75" s="7">
         <v>109001</v>
@@ -4939,7 +4941,7 @@
     </row>
     <row r="76" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B76" s="7">
         <v>109001</v>
@@ -4962,7 +4964,7 @@
     </row>
     <row r="77" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B77" s="7">
         <v>109001</v>
@@ -4985,7 +4987,7 @@
     </row>
     <row r="78" spans="1:7" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B78" s="7">
         <v>109001</v>
@@ -5652,7 +5654,7 @@
     </row>
     <row r="107" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B107" s="7">
         <v>204001</v>
@@ -5675,7 +5677,7 @@
     </row>
     <row r="108" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B108" s="7">
         <v>204001</v>
@@ -5698,7 +5700,7 @@
     </row>
     <row r="109" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B109" s="7">
         <v>204001</v>
@@ -5721,7 +5723,7 @@
     </row>
     <row r="110" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B110" s="7">
         <v>204001</v>
@@ -5744,7 +5746,7 @@
     </row>
     <row r="111" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B111" s="7">
         <v>204001</v>
@@ -5767,7 +5769,7 @@
     </row>
     <row r="112" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B112" s="7">
         <v>204001</v>
@@ -5790,7 +5792,7 @@
     </row>
     <row r="113" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B113" s="7">
         <v>204001</v>
@@ -6631,8 +6633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
@@ -6671,7 +6673,7 @@
         <v>63</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>60</v>
@@ -6706,7 +6708,7 @@
         <v>67</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J2" s="7"/>
     </row>
@@ -6736,7 +6738,7 @@
         <v>67</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J3" s="7"/>
     </row>
@@ -6766,7 +6768,7 @@
         <v>67</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J4" s="7"/>
     </row>
@@ -6796,7 +6798,7 @@
         <v>38</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J5" s="7"/>
     </row>
@@ -6826,7 +6828,7 @@
         <v>67</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J6" s="7"/>
     </row>
@@ -6856,7 +6858,7 @@
         <v>67</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J7" s="7"/>
     </row>
@@ -6881,7 +6883,7 @@
         <v>62</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="24"/>
@@ -6907,7 +6909,7 @@
         <v>62</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="24"/>
@@ -6933,7 +6935,7 @@
         <v>62</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I10" s="28"/>
       <c r="J10" s="24"/>
@@ -6959,7 +6961,7 @@
         <v>62</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I11" s="28"/>
       <c r="J11" s="24"/>
@@ -6985,14 +6987,14 @@
         <v>62</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I12" s="28"/>
       <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="7">
         <v>102001</v>
@@ -7016,13 +7018,13 @@
         <v>67</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" s="7">
         <v>102001</v>
@@ -7046,13 +7048,13 @@
         <v>67</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="7">
         <v>102001</v>
@@ -7076,13 +7078,13 @@
         <v>67</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="7">
         <v>102001</v>
@@ -7106,13 +7108,13 @@
         <v>38</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="7">
         <v>103001</v>
@@ -7136,13 +7138,13 @@
         <v>67</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" s="7">
         <v>103001</v>
@@ -7166,13 +7168,13 @@
         <v>67</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" s="7">
         <v>103001</v>
@@ -7196,13 +7198,13 @@
         <v>68</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="7">
         <v>103001</v>
@@ -7226,13 +7228,13 @@
         <v>38</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" s="7">
         <v>103001</v>
@@ -7256,7 +7258,7 @@
         <v>69</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J21" s="7"/>
     </row>
@@ -7286,7 +7288,7 @@
         <v>68</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J22" s="7"/>
     </row>
@@ -7316,7 +7318,7 @@
         <v>68</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J23" s="7"/>
     </row>
@@ -7346,7 +7348,7 @@
         <v>68</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J24" s="7"/>
     </row>
@@ -7376,7 +7378,7 @@
         <v>68</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J25" s="7"/>
     </row>
@@ -7406,7 +7408,7 @@
         <v>38</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J26" s="7"/>
     </row>
@@ -7436,7 +7438,7 @@
         <v>67</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J27" s="7"/>
     </row>
@@ -7466,7 +7468,7 @@
         <v>67</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J28" s="7"/>
     </row>
@@ -7496,7 +7498,7 @@
         <v>67</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J29" s="7"/>
     </row>
@@ -7526,7 +7528,7 @@
         <v>38</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J30" s="7"/>
     </row>
@@ -7556,7 +7558,7 @@
         <v>38</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>54</v>
@@ -7588,7 +7590,7 @@
         <v>68</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J32" s="7"/>
     </row>
@@ -7618,7 +7620,7 @@
         <v>69</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J33" s="7"/>
     </row>
@@ -7648,7 +7650,7 @@
         <v>67</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J34" s="7"/>
     </row>
@@ -7678,7 +7680,7 @@
         <v>67</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J35" s="7"/>
     </row>
@@ -7708,7 +7710,7 @@
         <v>67</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J36" s="7"/>
     </row>
@@ -7738,7 +7740,7 @@
         <v>67</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J37" s="7"/>
     </row>
@@ -7768,7 +7770,7 @@
         <v>67</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J38" s="7"/>
     </row>
@@ -7798,7 +7800,7 @@
         <v>67</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J39" s="7"/>
     </row>
@@ -7828,7 +7830,7 @@
         <v>38</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>53</v>
@@ -7860,7 +7862,7 @@
         <v>68</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J41" s="7"/>
     </row>
@@ -7890,7 +7892,7 @@
         <v>68</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J42" s="7"/>
     </row>
@@ -7920,7 +7922,7 @@
         <v>68</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J43" s="7"/>
     </row>
@@ -7948,7 +7950,7 @@
         <v>38</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J44" s="7"/>
     </row>
@@ -7978,7 +7980,7 @@
         <v>67</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J45" s="7"/>
     </row>
@@ -8008,7 +8010,7 @@
         <v>67</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J46" s="7"/>
     </row>
@@ -8038,7 +8040,7 @@
         <v>67</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J47" s="7"/>
     </row>
@@ -8068,7 +8070,7 @@
         <v>38</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J48" s="7"/>
     </row>
@@ -8098,7 +8100,7 @@
         <v>67</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J49" s="7"/>
     </row>
@@ -8128,7 +8130,7 @@
         <v>67</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J50" s="7"/>
     </row>
@@ -8158,7 +8160,7 @@
         <v>67</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J51" s="7"/>
     </row>
@@ -8188,7 +8190,7 @@
         <v>67</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J52" s="7"/>
     </row>
@@ -8218,7 +8220,7 @@
         <v>67</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J53" s="7"/>
     </row>
@@ -8248,7 +8250,7 @@
         <v>38</v>
       </c>
       <c r="I54" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J54" s="7"/>
     </row>
@@ -8278,7 +8280,7 @@
         <v>67</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J55" s="7"/>
     </row>
@@ -8308,13 +8310,13 @@
         <v>38</v>
       </c>
       <c r="I56" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B57" s="7">
         <v>108003</v>
@@ -8338,13 +8340,13 @@
         <v>67</v>
       </c>
       <c r="I57" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B58" s="7">
         <v>108003</v>
@@ -8368,13 +8370,13 @@
         <v>67</v>
       </c>
       <c r="I58" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B59" s="7">
         <v>108003</v>
@@ -8398,13 +8400,13 @@
         <v>67</v>
       </c>
       <c r="I59" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J59" s="7"/>
     </row>
     <row r="60" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B60" s="7">
         <v>108003</v>
@@ -8428,13 +8430,13 @@
         <v>67</v>
       </c>
       <c r="I60" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B61" s="7">
         <v>108003</v>
@@ -8456,13 +8458,13 @@
         <v>38</v>
       </c>
       <c r="I61" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B62" s="7">
         <v>108003</v>
@@ -8486,13 +8488,13 @@
         <v>67</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J62" s="7"/>
     </row>
     <row r="63" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B63" s="7">
         <v>108003</v>
@@ -8516,13 +8518,13 @@
         <v>68</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J63" s="7"/>
     </row>
     <row r="64" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B64" s="7">
         <v>109001</v>
@@ -8546,13 +8548,13 @@
         <v>67</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J64" s="7"/>
     </row>
     <row r="65" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B65" s="7">
         <v>109001</v>
@@ -8576,13 +8578,13 @@
         <v>67</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J65" s="7"/>
     </row>
     <row r="66" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B66" s="7">
         <v>109001</v>
@@ -8606,13 +8608,13 @@
         <v>67</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J66" s="7"/>
     </row>
     <row r="67" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B67" s="7">
         <v>109001</v>
@@ -8636,13 +8638,13 @@
         <v>38</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J67" s="7"/>
     </row>
     <row r="68" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B68" s="7">
         <v>109001</v>
@@ -8666,13 +8668,13 @@
         <v>67</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B69" s="7">
         <v>109001</v>
@@ -8696,13 +8698,13 @@
         <v>67</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J69" s="7"/>
     </row>
     <row r="70" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B70" s="7">
         <v>109001</v>
@@ -8726,7 +8728,7 @@
         <v>67</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J70" s="7"/>
     </row>
@@ -8756,7 +8758,7 @@
         <v>67</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J71" s="7"/>
     </row>
@@ -8786,7 +8788,7 @@
         <v>67</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J72" s="7"/>
     </row>
@@ -8816,7 +8818,7 @@
         <v>38</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J73" s="7"/>
     </row>
@@ -8846,7 +8848,7 @@
         <v>67</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J74" s="7"/>
     </row>
@@ -8876,7 +8878,7 @@
         <v>67</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J75" s="7"/>
     </row>
@@ -8906,7 +8908,7 @@
         <v>67</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J76" s="7"/>
     </row>
@@ -8936,7 +8938,7 @@
         <v>67</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J77" s="7"/>
     </row>
@@ -8966,7 +8968,7 @@
         <v>68</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J78" s="7"/>
     </row>
@@ -8996,7 +8998,7 @@
         <v>68</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J79" s="7"/>
     </row>
@@ -9026,7 +9028,7 @@
         <v>68</v>
       </c>
       <c r="I80" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J80" s="7"/>
     </row>
@@ -9056,7 +9058,7 @@
         <v>38</v>
       </c>
       <c r="I81" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J81" s="7"/>
     </row>
@@ -9086,7 +9088,7 @@
         <v>67</v>
       </c>
       <c r="I82" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J82" s="7"/>
     </row>
@@ -9116,7 +9118,7 @@
         <v>67</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J83" s="7"/>
     </row>
@@ -9146,7 +9148,7 @@
         <v>67</v>
       </c>
       <c r="I84" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J84" s="7"/>
     </row>
@@ -9174,7 +9176,7 @@
         <v>38</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J85" s="7"/>
     </row>
@@ -9204,7 +9206,7 @@
         <v>67</v>
       </c>
       <c r="I86" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J86" s="7"/>
     </row>
@@ -9234,7 +9236,7 @@
         <v>68</v>
       </c>
       <c r="I87" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J87" s="7"/>
     </row>
@@ -9264,7 +9266,7 @@
         <v>68</v>
       </c>
       <c r="I88" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J88" s="7"/>
     </row>
@@ -9294,7 +9296,7 @@
         <v>68</v>
       </c>
       <c r="I89" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J89" s="7"/>
     </row>
@@ -9324,7 +9326,7 @@
         <v>67</v>
       </c>
       <c r="I90" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J90" s="7"/>
     </row>
@@ -9354,7 +9356,7 @@
         <v>38</v>
       </c>
       <c r="I91" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J91" s="7"/>
     </row>
@@ -9384,7 +9386,7 @@
         <v>67</v>
       </c>
       <c r="I92" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J92" s="7"/>
     </row>
@@ -9414,7 +9416,7 @@
         <v>68</v>
       </c>
       <c r="I93" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J93" s="7"/>
     </row>
@@ -9444,7 +9446,7 @@
         <v>67</v>
       </c>
       <c r="I94" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J94" s="7"/>
     </row>
@@ -9474,13 +9476,13 @@
         <v>38</v>
       </c>
       <c r="I95" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J95" s="7"/>
     </row>
     <row r="96" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B96" s="7">
         <v>204001</v>
@@ -9504,13 +9506,13 @@
         <v>67</v>
       </c>
       <c r="I96" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J96" s="7"/>
     </row>
     <row r="97" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B97" s="7">
         <v>204001</v>
@@ -9534,13 +9536,13 @@
         <v>67</v>
       </c>
       <c r="I97" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J97" s="7"/>
     </row>
     <row r="98" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B98" s="7">
         <v>204001</v>
@@ -9562,13 +9564,13 @@
         <v>38</v>
       </c>
       <c r="I98" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J98" s="7"/>
     </row>
     <row r="99" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B99" s="7">
         <v>204001</v>
@@ -9592,13 +9594,13 @@
         <v>67</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J99" s="7"/>
     </row>
     <row r="100" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B100" s="7">
         <v>204001</v>
@@ -9622,13 +9624,13 @@
         <v>67</v>
       </c>
       <c r="I100" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J100" s="7"/>
     </row>
     <row r="101" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B101" s="7">
         <v>204001</v>
@@ -9652,13 +9654,13 @@
         <v>68</v>
       </c>
       <c r="I101" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J101" s="7"/>
     </row>
     <row r="102" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B102" s="7">
         <v>204001</v>
@@ -9682,7 +9684,7 @@
         <v>68</v>
       </c>
       <c r="I102" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J102" s="7"/>
     </row>
@@ -9712,7 +9714,7 @@
         <v>67</v>
       </c>
       <c r="I103" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J103" s="7"/>
     </row>
@@ -9742,7 +9744,7 @@
         <v>67</v>
       </c>
       <c r="I104" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J104" s="7"/>
     </row>
@@ -9772,7 +9774,7 @@
         <v>67</v>
       </c>
       <c r="I105" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J105" s="7"/>
     </row>
@@ -9802,7 +9804,7 @@
         <v>67</v>
       </c>
       <c r="I106" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J106" s="7"/>
     </row>
@@ -9830,7 +9832,7 @@
         <v>38</v>
       </c>
       <c r="I107" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J107" s="7"/>
     </row>
@@ -9860,7 +9862,7 @@
         <v>38</v>
       </c>
       <c r="I108" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J108" s="7"/>
     </row>
@@ -9890,7 +9892,7 @@
         <v>67</v>
       </c>
       <c r="I109" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J109" s="7"/>
     </row>
@@ -9920,7 +9922,7 @@
         <v>67</v>
       </c>
       <c r="I110" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J110" s="7"/>
     </row>
@@ -9950,7 +9952,7 @@
         <v>67</v>
       </c>
       <c r="I111" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J111" s="7"/>
     </row>
@@ -9980,7 +9982,7 @@
         <v>67</v>
       </c>
       <c r="I112" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J112" s="7"/>
     </row>
@@ -10010,7 +10012,7 @@
         <v>67</v>
       </c>
       <c r="I113" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J113" s="7"/>
     </row>
@@ -10040,7 +10042,7 @@
         <v>67</v>
       </c>
       <c r="I114" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J114" s="7"/>
     </row>
@@ -10070,7 +10072,7 @@
         <v>67</v>
       </c>
       <c r="I115" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J115" s="7"/>
     </row>
@@ -10100,7 +10102,7 @@
         <v>38</v>
       </c>
       <c r="I116" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J116" s="7"/>
     </row>
@@ -10130,7 +10132,7 @@
         <v>69</v>
       </c>
       <c r="I117" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J117" s="7"/>
     </row>
@@ -10160,7 +10162,7 @@
         <v>67</v>
       </c>
       <c r="I118" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J118" s="7"/>
     </row>
@@ -10190,7 +10192,7 @@
         <v>67</v>
       </c>
       <c r="I119" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J119" s="7"/>
     </row>
@@ -10220,7 +10222,7 @@
         <v>67</v>
       </c>
       <c r="I120" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J120" s="7"/>
     </row>
@@ -10250,7 +10252,7 @@
         <v>67</v>
       </c>
       <c r="I121" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J121" s="7"/>
     </row>
@@ -10280,7 +10282,7 @@
         <v>67</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J122" s="7"/>
     </row>
@@ -10310,7 +10312,7 @@
         <v>67</v>
       </c>
       <c r="I123" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J123" s="7"/>
     </row>
@@ -10340,13 +10342,13 @@
         <v>38</v>
       </c>
       <c r="I124" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J124" s="7"/>
     </row>
     <row r="125" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B125" s="7">
         <v>301003</v>
@@ -10370,13 +10372,13 @@
         <v>67</v>
       </c>
       <c r="I125" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J125" s="7"/>
     </row>
     <row r="126" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B126" s="7">
         <v>301003</v>
@@ -10400,13 +10402,13 @@
         <v>67</v>
       </c>
       <c r="I126" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J126" s="7"/>
     </row>
     <row r="127" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B127" s="7">
         <v>301003</v>
@@ -10430,13 +10432,13 @@
         <v>67</v>
       </c>
       <c r="I127" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J127" s="7"/>
     </row>
     <row r="128" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B128" s="7">
         <v>301003</v>
@@ -10460,13 +10462,13 @@
         <v>67</v>
       </c>
       <c r="I128" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J128" s="7"/>
     </row>
     <row r="129" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B129" s="7">
         <v>301003</v>
@@ -10490,7 +10492,7 @@
         <v>67</v>
       </c>
       <c r="I129" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J129" s="7"/>
     </row>
@@ -10520,13 +10522,13 @@
         <v>38</v>
       </c>
       <c r="I130" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J130" s="7"/>
     </row>
     <row r="131" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B131" s="7">
         <v>401001</v>
@@ -10550,13 +10552,13 @@
         <v>38</v>
       </c>
       <c r="I131" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J131" s="7"/>
     </row>
     <row r="132" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B132" s="7">
         <v>401001</v>
@@ -10580,7 +10582,7 @@
         <v>38</v>
       </c>
       <c r="I132" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J132" s="7"/>
     </row>
